--- a/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1281,10 +1281,27 @@
     <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
     <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.doseAndRate.dose[x]:doseQuantity</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Dose déclarée</t>
   </si>
   <si>
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
@@ -1308,10 +1325,6 @@
     <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
@@ -1321,36 +1334,23 @@
     <t>RXE22, RXE23, RXE-24</t>
   </si>
   <si>
-    <t>MedicationStatement.dosage.doseAndRate.rate[x]:rateRatio</t>
-  </si>
-  <si>
-    <t>rateRatio</t>
+    <t>MedicationStatement.dosage.doseAndRate.rate[x]:rateQuantity</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>rythme d'administration</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
-    <t>doseMaximale</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.doseAndRate.rate[x]:rateQuantity</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>rythme d'administration</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time</t>
+    <t>dose maximale</t>
   </si>
   <si>
     <t>Upper limit on medication per unit of time.</t>
@@ -1737,9 +1737,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.38671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="48.875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.43359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -6682,7 +6682,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>381</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
@@ -7211,19 +7211,17 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7247,17 +7245,19 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7278,19 +7278,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7327,17 +7327,19 @@
         <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7355,25 +7357,23 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>77</v>
@@ -7394,19 +7394,19 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7443,19 +7443,17 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7473,13 +7471,13 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
@@ -7487,7 +7485,7 @@
         <v>419</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>420</v>
@@ -7512,19 +7510,19 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7573,7 +7571,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7591,21 +7589,21 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7619,7 +7617,7 @@
         <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
@@ -7628,7 +7626,7 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>424</v>

--- a/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-medication-statement-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
